--- a/APPSHEET/EXCEL/lista_producto_melo1.xlsx
+++ b/APPSHEET/EXCEL/lista_producto_melo1.xlsx
@@ -188,7 +188,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">00</t>
+            <t xml:space="preserve">78</t>
           </r>
         </is>
       </c>
@@ -197,7 +197,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">AGUA</t>
+            <t xml:space="preserve">ADICIONAL</t>
           </r>
         </is>
       </c>
@@ -206,7 +206,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">SISTEMA</t>
           </r>
         </is>
       </c>
@@ -224,7 +224,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">AGUA CON GAS</t>
+            <t xml:space="preserve">DOBLE SUIT NORMAL</t>
           </r>
         </is>
       </c>
@@ -242,7 +242,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">50000</t>
           </r>
         </is>
       </c>
@@ -253,7 +253,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">70</t>
+            <t xml:space="preserve">77</t>
           </r>
         </is>
       </c>
@@ -262,7 +262,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">AGUA</t>
+            <t xml:space="preserve">ADICIONAL</t>
           </r>
         </is>
       </c>
@@ -271,7 +271,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">SISTEMA</t>
           </r>
         </is>
       </c>
@@ -289,7 +289,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">AGUA</t>
+            <t xml:space="preserve">DOBLE SUIT  VIP</t>
           </r>
         </is>
       </c>
@@ -298,7 +298,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">49</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -307,7 +307,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -318,7 +318,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">05</t>
+            <t xml:space="preserve">74</t>
           </r>
         </is>
       </c>
@@ -327,7 +327,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CERVEZA</t>
+            <t xml:space="preserve">ADICIONAL</t>
           </r>
         </is>
       </c>
@@ -336,7 +336,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">SISTEMA</t>
           </r>
         </is>
       </c>
@@ -354,7 +354,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SMIRNOFF 275ML</t>
+            <t xml:space="preserve">DOBLE NORMAL</t>
           </r>
         </is>
       </c>
@@ -372,7 +372,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">40000</t>
           </r>
         </is>
       </c>
@@ -383,7 +383,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">78</t>
+            <t xml:space="preserve">75</t>
           </r>
         </is>
       </c>
@@ -392,7 +392,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CERVEZA</t>
+            <t xml:space="preserve">ADICIONAL</t>
           </r>
         </is>
       </c>
@@ -401,7 +401,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">SISTEMA</t>
           </r>
         </is>
       </c>
@@ -419,7 +419,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SKOLL ABRE FACIL</t>
+            <t xml:space="preserve">DOBLE ECONOMICO</t>
           </r>
         </is>
       </c>
@@ -428,7 +428,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">56</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -437,7 +437,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9000</t>
+            <t xml:space="preserve">25000</t>
           </r>
         </is>
       </c>
@@ -448,7 +448,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">609</t>
+            <t xml:space="preserve">73</t>
           </r>
         </is>
       </c>
@@ -457,7 +457,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CERVEZA</t>
+            <t xml:space="preserve">ADICIONAL</t>
           </r>
         </is>
       </c>
@@ -466,7 +466,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SKOLL</t>
+            <t xml:space="preserve">SISTEMA</t>
           </r>
         </is>
       </c>
@@ -484,7 +484,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SKOL LATA</t>
+            <t xml:space="preserve">ADICIONAL</t>
           </r>
         </is>
       </c>
@@ -493,7 +493,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">28</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -502,7 +502,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -513,7 +513,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">74</t>
+            <t xml:space="preserve">Ñ7841434000012</t>
           </r>
         </is>
       </c>
@@ -522,7 +522,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CERVEZA</t>
+            <t xml:space="preserve">AGUA</t>
           </r>
         </is>
       </c>
@@ -549,7 +549,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BUDWEISER</t>
+            <t xml:space="preserve">AGUA.M SIN GAS 500ML</t>
           </r>
         </is>
       </c>
@@ -558,7 +558,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">50</t>
+            <t xml:space="preserve">40</t>
           </r>
         </is>
       </c>
@@ -567,7 +567,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9000</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -578,7 +578,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">97</t>
+            <t xml:space="preserve">7840058001443</t>
           </r>
         </is>
       </c>
@@ -587,7 +587,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CERVEZA</t>
+            <t xml:space="preserve">AGUA</t>
           </r>
         </is>
       </c>
@@ -596,7 +596,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BRAHAMA</t>
+            <t xml:space="preserve">VARIOS</t>
           </r>
         </is>
       </c>
@@ -614,7 +614,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BRHAMA </t>
+            <t xml:space="preserve">AGUA TONICA 500ML</t>
           </r>
         </is>
       </c>
@@ -623,7 +623,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">51</t>
+            <t xml:space="preserve">7</t>
           </r>
         </is>
       </c>
@@ -643,7 +643,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">23</t>
+            <t xml:space="preserve">7840058002105</t>
           </r>
         </is>
       </c>
@@ -652,7 +652,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CHICLE</t>
+            <t xml:space="preserve">AGUA</t>
           </r>
         </is>
       </c>
@@ -661,7 +661,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BELDENT</t>
+            <t xml:space="preserve">DASANI</t>
           </r>
         </is>
       </c>
@@ -679,7 +679,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CHICLE</t>
+            <t xml:space="preserve">AGUA CON GAS</t>
           </r>
         </is>
       </c>
@@ -688,7 +688,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">130</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -697,7 +697,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -708,7 +708,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">62</t>
+            <t xml:space="preserve">7893218003603</t>
           </r>
         </is>
       </c>
@@ -717,7 +717,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CHICLE</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -726,7 +726,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BELDENT</t>
+            <t xml:space="preserve">SMIRNOFF</t>
           </r>
         </is>
       </c>
@@ -735,7 +735,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">BOT.275ML</t>
           </r>
         </is>
       </c>
@@ -744,7 +744,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CARAMELO</t>
+            <t xml:space="preserve">SMIRNOFF 275ML</t>
           </r>
         </is>
       </c>
@@ -753,7 +753,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">143</t>
+            <t xml:space="preserve">15</t>
           </r>
         </is>
       </c>
@@ -762,7 +762,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -773,7 +773,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">333</t>
+            <t xml:space="preserve">7891149107704</t>
           </r>
         </is>
       </c>
@@ -782,7 +782,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CIGARRILLOS</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -791,7 +791,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">SKOLL</t>
           </r>
         </is>
       </c>
@@ -809,7 +809,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ENCENDEDOR</t>
+            <t xml:space="preserve">SKOLL ABRE FACIL 275CM</t>
           </r>
         </is>
       </c>
@@ -818,7 +818,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
@@ -827,7 +827,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -838,7 +838,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">99</t>
+            <t xml:space="preserve">7891149103102</t>
           </r>
         </is>
       </c>
@@ -847,7 +847,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CIGARRILLOS</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -856,7 +856,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">SKOLL</t>
           </r>
         </is>
       </c>
@@ -874,7 +874,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CIGARRILLO</t>
+            <t xml:space="preserve">SKOL 269ML</t>
           </r>
         </is>
       </c>
@@ -883,7 +883,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">30</t>
           </r>
         </is>
       </c>
@@ -892,7 +892,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -903,7 +903,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">81</t>
+            <t xml:space="preserve">034100005542</t>
           </r>
         </is>
       </c>
@@ -912,7 +912,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">COMESTIBLES</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -921,7 +921,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">MILLER</t>
           </r>
         </is>
       </c>
@@ -930,7 +930,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">LATA 350ML</t>
           </r>
         </is>
       </c>
@@ -939,7 +939,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SALADIX</t>
+            <t xml:space="preserve">MILLER LATA</t>
           </r>
         </is>
       </c>
@@ -948,7 +948,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">14</t>
           </r>
         </is>
       </c>
@@ -957,7 +957,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">8000</t>
           </r>
         </is>
       </c>
@@ -968,7 +968,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">155</t>
+            <t xml:space="preserve">8712000030599</t>
           </r>
         </is>
       </c>
@@ -977,7 +977,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ENERGIZANTE</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -986,7 +986,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">RED BULL</t>
+            <t xml:space="preserve">HEINEKEN</t>
           </r>
         </is>
       </c>
@@ -995,7 +995,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">BOT.1/4</t>
           </r>
         </is>
       </c>
@@ -1004,7 +1004,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ENERGISANTE</t>
+            <t xml:space="preserve">HEINEKEN PONY</t>
           </r>
         </is>
       </c>
@@ -1013,7 +1013,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -1022,7 +1022,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15000</t>
+            <t xml:space="preserve">9000</t>
           </r>
         </is>
       </c>
@@ -1033,7 +1033,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">123</t>
+            <t xml:space="preserve">75032715</t>
           </r>
         </is>
       </c>
@@ -1042,7 +1042,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">GASEOSA</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -1051,7 +1051,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">CORONA</t>
           </r>
         </is>
       </c>
@@ -1069,7 +1069,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">GASEOSA</t>
+            <t xml:space="preserve">CORONA BOTELLA 355ML</t>
           </r>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">91</t>
+            <t xml:space="preserve">27</t>
           </r>
         </is>
       </c>
@@ -1087,7 +1087,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -1098,7 +1098,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">777</t>
+            <t xml:space="preserve">7898295300935</t>
           </r>
         </is>
       </c>
@@ -1107,7 +1107,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -1116,7 +1116,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">CONTI</t>
           </r>
         </is>
       </c>
@@ -1125,7 +1125,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">LATA 269 ML</t>
           </r>
         </is>
       </c>
@@ -1134,7 +1134,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">TOALLA FEMENINA</t>
+            <t xml:space="preserve">CONTI </t>
           </r>
         </is>
       </c>
@@ -1143,7 +1143,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">20</t>
           </r>
         </is>
       </c>
@@ -1152,7 +1152,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2000</t>
+            <t xml:space="preserve">3334</t>
           </r>
         </is>
       </c>
@@ -1163,7 +1163,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">01</t>
+            <t xml:space="preserve">7898295301437</t>
           </r>
         </is>
       </c>
@@ -1172,7 +1172,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -1181,7 +1181,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">BURGUESA</t>
           </r>
         </is>
       </c>
@@ -1190,7 +1190,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">LATA 269 ML</t>
           </r>
         </is>
       </c>
@@ -1199,7 +1199,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SHAMPOO</t>
+            <t xml:space="preserve">BURGUESA </t>
           </r>
         </is>
       </c>
@@ -1208,7 +1208,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">48</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
@@ -1217,7 +1217,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3000</t>
+            <t xml:space="preserve">3334</t>
           </r>
         </is>
       </c>
@@ -1228,7 +1228,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">33</t>
+            <t xml:space="preserve">7840050003605</t>
           </r>
         </is>
       </c>
@@ -1237,7 +1237,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -1246,7 +1246,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">BUD66</t>
           </r>
         </is>
       </c>
@@ -1264,7 +1264,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROTECTOR DIARIO</t>
+            <t xml:space="preserve">BUD 66 310CM</t>
           </r>
         </is>
       </c>
@@ -1273,7 +1273,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">-1</t>
+            <t xml:space="preserve">37</t>
           </r>
         </is>
       </c>
@@ -1282,7 +1282,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2000</t>
+            <t xml:space="preserve">8000</t>
           </r>
         </is>
       </c>
@@ -1293,7 +1293,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">555</t>
+            <t xml:space="preserve">7840050002561</t>
           </r>
         </is>
       </c>
@@ -1302,7 +1302,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -1311,7 +1311,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">BRAHMA</t>
           </r>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">LATA 269 ML</t>
           </r>
         </is>
       </c>
@@ -1329,7 +1329,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PASTA DE DIENTES</t>
+            <t xml:space="preserve">BRAHMA SUBZERO</t>
           </r>
         </is>
       </c>
@@ -1338,7 +1338,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">28</t>
           </r>
         </is>
       </c>
@@ -1347,7 +1347,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -1358,7 +1358,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">45</t>
+            <t xml:space="preserve">77969071</t>
           </r>
         </is>
       </c>
@@ -1367,7 +1367,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">CHICLE</t>
           </r>
         </is>
       </c>
@@ -1376,7 +1376,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">BELDENT</t>
           </r>
         </is>
       </c>
@@ -1394,7 +1394,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MAQUINA DE AFEITAR</t>
+            <t xml:space="preserve">BELDENT MENTA</t>
           </r>
         </is>
       </c>
@@ -1403,7 +1403,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4</t>
+            <t xml:space="preserve">10</t>
           </r>
         </is>
       </c>
@@ -1412,7 +1412,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">4000</t>
           </r>
         </is>
       </c>
@@ -1423,7 +1423,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">223</t>
+            <t xml:space="preserve">78410107</t>
           </r>
         </is>
       </c>
@@ -1432,7 +1432,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">CIGARRILLOS</t>
           </r>
         </is>
       </c>
@@ -1459,7 +1459,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUBRICANTE CHICO</t>
+            <t xml:space="preserve">PHILIP MORRIS 10</t>
           </r>
         </is>
       </c>
@@ -1468,7 +1468,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">-2</t>
           </r>
         </is>
       </c>
@@ -1488,7 +1488,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">134</t>
+            <t xml:space="preserve">78420847</t>
           </r>
         </is>
       </c>
@@ -1497,7 +1497,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">CIGARRILLOS</t>
           </r>
         </is>
       </c>
@@ -1506,7 +1506,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">MARLBORO</t>
           </r>
         </is>
       </c>
@@ -1524,7 +1524,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CEPILLO DE DIENTE</t>
+            <t xml:space="preserve">MARLBORO 20</t>
           </r>
         </is>
       </c>
@@ -1533,7 +1533,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -1542,7 +1542,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">12000</t>
           </r>
         </is>
       </c>
@@ -1553,7 +1553,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">03</t>
+            <t xml:space="preserve">78420854</t>
           </r>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROTECCION</t>
+            <t xml:space="preserve">CIGARRILLOS</t>
           </r>
         </is>
       </c>
@@ -1571,7 +1571,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CONTROL</t>
+            <t xml:space="preserve">MARLBORO</t>
           </r>
         </is>
       </c>
@@ -1589,7 +1589,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PRESERVATIVO UNID</t>
+            <t xml:space="preserve">MARLBORO 10</t>
           </r>
         </is>
       </c>
@@ -1598,7 +1598,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">257</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
@@ -1607,7 +1607,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -1618,7 +1618,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">02</t>
+            <t xml:space="preserve">78412231</t>
           </r>
         </is>
       </c>
@@ -1627,7 +1627,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROTECCION</t>
+            <t xml:space="preserve">CIGARRILLOS</t>
           </r>
         </is>
       </c>
@@ -1636,7 +1636,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CONTROL</t>
+            <t xml:space="preserve">LUCKY</t>
           </r>
         </is>
       </c>
@@ -1645,7 +1645,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CAJA 3/U</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -1654,7 +1654,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PRESERVATIVO CAJA</t>
+            <t xml:space="preserve">LUCKY 20</t>
           </r>
         </is>
       </c>
@@ -1663,7 +1663,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">30</t>
+            <t xml:space="preserve">-1</t>
           </r>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15000</t>
+            <t xml:space="preserve">12000</t>
           </r>
         </is>
       </c>
@@ -1683,7 +1683,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55</t>
+            <t xml:space="preserve">78412255</t>
           </r>
         </is>
       </c>
@@ -1692,7 +1692,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">REMEDIO</t>
+            <t xml:space="preserve">CIGARRILLOS</t>
           </r>
         </is>
       </c>
@@ -1701,7 +1701,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">LUCKY</t>
           </r>
         </is>
       </c>
@@ -1719,7 +1719,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">KITADOL</t>
+            <t xml:space="preserve">LUCKY 10</t>
           </r>
         </is>
       </c>
@@ -1728,7 +1728,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20</t>
+            <t xml:space="preserve">-1</t>
           </r>
         </is>
       </c>
@@ -1737,7 +1737,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -1748,7 +1748,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">300</t>
+            <t xml:space="preserve">78409620</t>
           </r>
         </is>
       </c>
@@ -1757,7 +1757,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VINO</t>
+            <t xml:space="preserve">CIGARRILLOS</t>
           </r>
         </is>
       </c>
@@ -1766,7 +1766,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SANTA ELENA</t>
+            <t xml:space="preserve">KENT</t>
           </r>
         </is>
       </c>
@@ -1784,7 +1784,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VINO SANTA HELENA</t>
+            <t xml:space="preserve">KENT10 NORMAL</t>
           </r>
         </is>
       </c>
@@ -1793,7 +1793,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4</t>
+            <t xml:space="preserve">20</t>
           </r>
         </is>
       </c>
@@ -1802,7 +1802,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">35000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -1813,7 +1813,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">000</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
@@ -1822,7 +1822,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VINO</t>
+            <t xml:space="preserve">CIGARRILLOS</t>
           </r>
         </is>
       </c>
@@ -1831,7 +1831,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">KENT</t>
           </r>
         </is>
       </c>
@@ -1849,7 +1849,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VINO QUINTA</t>
+            <t xml:space="preserve">KENT 20</t>
           </r>
         </is>
       </c>
@@ -1858,7 +1858,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1867,7 +1867,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">40000</t>
+            <t xml:space="preserve">15000</t>
           </r>
         </is>
       </c>
@@ -1878,7 +1878,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">04</t>
+            <t xml:space="preserve">49</t>
           </r>
         </is>
       </c>
@@ -1887,7 +1887,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">WHISKY</t>
+            <t xml:space="preserve">CIGARRILLOS</t>
           </r>
         </is>
       </c>
@@ -1896,7 +1896,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JHONY</t>
+            <t xml:space="preserve">KENT</t>
           </r>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">WISKY 220</t>
+            <t xml:space="preserve">ENCENDEDOR</t>
           </r>
         </is>
       </c>
@@ -1923,7 +1923,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">10</t>
           </r>
         </is>
       </c>
@@ -1932,7 +1932,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">35000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -1943,7 +1943,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">001</t>
+            <t xml:space="preserve">90</t>
           </r>
         </is>
       </c>
@@ -1952,7 +1952,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">YACUZZI</t>
+            <t xml:space="preserve">COMESTIBLES</t>
           </r>
         </is>
       </c>
@@ -1970,29 +1970,3149 @@
           <r>
             <rPr>
        </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">XXXXXX</t>
+          </r>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="30" customHeight="1" ht="20">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7790580697303</t>
+          </r>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SALADIX</t>
+          </r>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SALADIX HORNEADO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">-1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="20">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7790580716707</t>
+          </r>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">ARCOR</t>
+          </r>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SALADIX</t>
+          </r>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="20">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7891000241295</t>
+          </r>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PASSATEMPO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PASSATEMPO 130G</t>
+          </r>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="33" customHeight="1" ht="20">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">8</t>
+          </r>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PRINGLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PAPAFRITA CHICO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">8000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="20">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7896004006482</t>
+          </r>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PRINGLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PAPA FRITA GRANDE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6</t>
+          </r>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="35" customHeight="1" ht="20">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">038000846731</t>
+          </r>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PRINGLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PAPA FRITA 37G</t>
+          </r>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">-1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="20">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7840042000162</t>
+          </r>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">LACTOLANDA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">LECHE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="20">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">78938816</t>
+          </r>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">HALLS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">HALLS</t>
+          </r>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">19</t>
+          </r>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="20">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7891008168884</t>
+          </r>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GAROTO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GAROTO LEITE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="39" customHeight="1" ht="20">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">57</t>
+          </r>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GALLETITAS RELLENADA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="40" customHeight="1" ht="20">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7896003738506</t>
+          </r>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">MARILAN</t>
+          </r>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GALLETITA MAIZENA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="41" customHeight="1" ht="20">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7891008169218</t>
+          </r>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GAROTO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CHOCOBARRA GAROTO 90G</t>
+          </r>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="42" customHeight="1" ht="20">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">77958921</t>
+          </r>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOMBOM</t>
+          </r>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BONBOM  X 3</t>
+          </r>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6</t>
+          </r>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="43" customHeight="1" ht="20">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7622300807399</t>
+          </r>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BIS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BIS 126G</t>
+          </r>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">12000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="44" customHeight="1" ht="20">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7790895643835</t>
+          </r>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COMESTIBLES</t>
+          </r>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">ADES</t>
+          </r>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">ADES</t>
+          </r>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="45" customHeight="1" ht="20">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7840058002877</t>
+          </r>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">ENERGIZANTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">POWER ADE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">POWERADE 500ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">9000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="46" customHeight="1" ht="20">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">9002490100070</t>
+          </r>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">ENERGIZANTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">RED BULL</t>
+          </r>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">ENERGIZANTE RED BULL</t>
+          </r>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">8</t>
+          </r>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="47" customHeight="1" ht="20">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7840058006608</t>
+          </r>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GASEOSA</t>
+          </r>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COCA COLA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SPRITE 500ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">8</t>
+          </r>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="48" customHeight="1" ht="20">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">ssssss</t>
+          </r>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GASEOSA</t>
+          </r>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FANTA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">500ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FANTA NARANJA 500ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="49" customHeight="1" ht="20">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7840058003089</t>
+          </r>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GASEOSA</t>
+          </r>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COCA COLA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">500ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FANTA GUARANA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="50" customHeight="1" ht="20">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7840058000019</t>
+          </r>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GASEOSA</t>
+          </r>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COCA COLA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">500ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COCA COLA 500 ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15</t>
+          </r>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="51" customHeight="1" ht="20">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">44</t>
+          </r>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">HIGUIENE</t>
+          </r>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">NOSOTRAS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TOALLITA INTIMA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">18</t>
+          </r>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="52" customHeight="1" ht="20">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">77947963</t>
+          </r>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">HIGUIENE</t>
+          </r>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SHAMPOO SEDAL 10ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">11</t>
+          </r>
+        </is>
+      </c>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="53" customHeight="1" ht="20">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7500435154420</t>
+          </r>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">HIGUIENE</t>
+          </r>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PRESTOBARBA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PRESTOBARBA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="54" customHeight="1" ht="20">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">21</t>
+          </r>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">HIGUIENE</t>
+          </r>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">COLGATE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PASTA DENTAL</t>
+          </r>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6</t>
+          </r>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="55" customHeight="1" ht="20">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7840465000299</t>
+          </r>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">HIGUIENE</t>
+          </r>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PANTERA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">LUBRICANTE PANTERA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">40000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="56" customHeight="1" ht="20">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7840010037527</t>
+          </r>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">HIGUIENE</t>
+          </r>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JABON MAR</t>
+          </r>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4</t>
+          </r>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="57" customHeight="1" ht="20">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7891055337349</t>
+          </r>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">HIGUIENE</t>
+          </r>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CONDOR</t>
+          </r>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CEPILLO DENTAL</t>
+          </r>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="58" customHeight="1" ht="20">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">333</t>
+          </r>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JUGOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JABON CABALLARO UNIPERSONAL</t>
+          </r>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">-1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="59" customHeight="1" ht="20">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7840058006691</t>
+          </r>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JUGOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FRUGOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FRUGOS DURASNO 1L</t>
+          </r>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">12000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="60" customHeight="1" ht="20">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6956910700544</t>
+          </r>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VIBRADOR </t>
+          </r>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="61" customHeight="1" ht="20">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7840465000183</t>
+          </r>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PANTERA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PANTERA CLASICO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">14</t>
+          </r>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="62" customHeight="1" ht="20">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2156057190763</t>
+          </r>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VITAL HONEY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">MIEL ESTIMULANTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="63" customHeight="1" ht="20">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898540503319</t>
+          </r>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">D4</t>
+          </r>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5G</t>
+          </r>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">LUBRICANTE MORANGO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">-1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="64" customHeight="1" ht="20">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898540501780</t>
+          </r>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">LUBRICANTE EN SACHE </t>
+          </r>
+        </is>
+      </c>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">18</t>
+          </r>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="65" customHeight="1" ht="20">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898540503326</t>
+          </r>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">D4</t>
+          </r>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5G</t>
+          </r>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">LUBRICANTE DE CHICLETE </t>
+          </r>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">-1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="66" customHeight="1" ht="20">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898540501346</t>
+          </r>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BENGALA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
             <t xml:space="preserve">15G</t>
           </r>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">HIDRO</t>
-          </r>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">89</t>
-          </r>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL RETARDANTE BENGALA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="67" customHeight="1" ht="20">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898540505160</t>
+          </r>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SEXY FANTASY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15G</t>
+          </r>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL RETARD PIKA TURBO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="68" customHeight="1" ht="20">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898675200312</t>
+          </r>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">YUMMY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL PARA ORAL MENTA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="69" customHeight="1" ht="20">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898675200350</t>
+          </r>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">YUMMY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL PARA ORAL CHICLETE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="70" customHeight="1" ht="20">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898675200053</t>
+          </r>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SEXY FANTASY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15G</t>
+          </r>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL FEMENINO REDUCE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="71" customHeight="1" ht="20">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898675200039</t>
+          </r>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SEXY FANTASY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15G</t>
+          </r>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL EXCITANTE FEMENINO ARDENTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">12000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="72" customHeight="1" ht="20">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">C</t>
+          </r>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CONTROL</t>
+          </r>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CAJA 3/U</t>
+          </r>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CONTROL TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="F72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">18</t>
+          </r>
+        </is>
+      </c>
+      <c r="G72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="73" customHeight="1" ht="20">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">92</t>
+          </r>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CONSOLADOR</t>
+          </r>
+        </is>
+      </c>
+      <c r="F73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">75000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="74" customHeight="1" ht="20">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">95</t>
+          </r>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BIBRADOR BULLET</t>
+          </r>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="75" customHeight="1" ht="20">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1001</t>
+          </r>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">REMEDIO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">YERON</t>
+          </r>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2500</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="76" customHeight="1" ht="20">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7793640211396</t>
+          </r>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">REMEDIO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">ASPIRINA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="77" customHeight="1" ht="20">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7792716246508</t>
+          </r>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIDRA</t>
+          </r>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">LA FARRUCA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIDRA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G77" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -2002,14 +5122,1054 @@
         </is>
       </c>
     </row>
-    <row r="30" customHeight="1" ht="180">
-      <c r="A30" s="2" t="inlineStr"/>
-      <c r="B30" s="2" t="inlineStr"/>
-      <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
+    <row r="78" customHeight="1" ht="20">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7896037917243</t>
+          </r>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">QUINTA DE </t>
+          </r>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO LATA QUITA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="79" customHeight="1" ht="20">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7791843008294</t>
+          </r>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VIÑA </t>
+          </r>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VIÑAS DE BALBO 1L</t>
+          </r>
+        </is>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="G79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">20000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="80" customHeight="1" ht="20">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7804300120467</t>
+          </r>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SANTA ELENA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SANTA ELENA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="G80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="81" customHeight="1" ht="20">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7896037913849</t>
+          </r>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">QUINTA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">QUINTA 1L</t>
+          </r>
+        </is>
+      </c>
+      <c r="F81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="82" customHeight="1" ht="20">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7791540053184</t>
+          </r>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FREZZE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FRIZZE 1L</t>
+          </r>
+        </is>
+      </c>
+      <c r="F82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="G82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="83" customHeight="1" ht="20">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">28</t>
+          </r>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FREZZE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FREZZE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="G83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="84" customHeight="1" ht="20">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7790703100321</t>
+          </r>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DON VALENTIN</t>
+          </r>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="85" customHeight="1" ht="20">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">36</t>
+          </r>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SANDY MAC</t>
+          </r>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="E85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SANDY M.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="F85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">50000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="86" customHeight="1" ht="20">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000267015767</t>
+          </r>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT. MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY R. MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="F86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="87" customHeight="1" ht="20">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">67</t>
+          </r>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY R. 1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="F87" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G87" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">55000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="88" customHeight="1" ht="20">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">31</t>
+          </r>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY N.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="F88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">85000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="89" customHeight="1" ht="20">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000267025575</t>
+          </r>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT. MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY N. MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="F89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">35000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="90" customHeight="1" ht="20">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">33</t>
+          </r>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GRANT-S</t>
+          </r>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GRANT-S.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="F90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="G90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">50000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="91" customHeight="1" ht="20">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">41</t>
+          </r>
+        </is>
+      </c>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CHIVAS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CHIVAS.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="F91" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G91" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">80000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="92" customHeight="1" ht="20">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">37</t>
+          </r>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CHIVAS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT. MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CHIVAS MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="F92" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G92" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="93" customHeight="1" ht="20">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000265001199</t>
+          </r>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CABALLITO BLANCO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CABALLITO BLANCO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F93" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G93" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">40000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="94" customHeight="1" ht="180">
+      <c r="A94" s="2" t="inlineStr"/>
+      <c r="B94" s="2" t="inlineStr"/>
+      <c r="C94" s="2" t="inlineStr"/>
+      <c r="D94" s="2" t="inlineStr"/>
+      <c r="E94" s="2" t="inlineStr"/>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
